--- a/artfynd/A 23669-2020.xlsx
+++ b/artfynd/A 23669-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY53"/>
+  <dimension ref="A1:AY56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7089,6 +7089,377 @@
         </is>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>112128672</v>
+      </c>
+      <c r="B54" t="n">
+        <v>90689</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Mjällådalen, Mpd</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>623279.5584157004</v>
+      </c>
+      <c r="R54" t="n">
+        <v>6951830.900261804</v>
+      </c>
+      <c r="S54" t="n">
+        <v>100</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Ljustorp</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>stgen upp mot vägen</t>
+        </is>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Elisabeth Nilsson</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>Elisabeth Nilsson</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>112128712</v>
+      </c>
+      <c r="B55" t="n">
+        <v>88914</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>2051</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Rotfingersvamp</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Ramaria boreimaxima</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Kytöv. &amp; M.Toivonen</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Mjällådalen, Mpd</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>623279.5584157004</v>
+      </c>
+      <c r="R55" t="n">
+        <v>6951830.900261804</v>
+      </c>
+      <c r="S55" t="n">
+        <v>100</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Ljustorp</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>stigen upp mot vägen</t>
+        </is>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>Elisabeth Nilsson</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>Elisabeth Nilsson</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>112128664</v>
+      </c>
+      <c r="B56" t="n">
+        <v>90710</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>5449</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Svart taggsvamp</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Phellodon niger</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Mjällådalen, Mpd</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>623279.5584157004</v>
+      </c>
+      <c r="R56" t="n">
+        <v>6951830.900261804</v>
+      </c>
+      <c r="S56" t="n">
+        <v>100</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Ljustorp</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>stigen upp mot vägen</t>
+        </is>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>Elisabeth Nilsson</t>
+        </is>
+      </c>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>Elisabeth Nilsson</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 23669-2020.xlsx
+++ b/artfynd/A 23669-2020.xlsx
@@ -7091,10 +7091,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112128672</v>
+        <v>112128664</v>
       </c>
       <c r="B54" t="n">
-        <v>90689</v>
+        <v>90710</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -7107,21 +7107,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5966</v>
+        <v>5449</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -7184,7 +7184,7 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>stgen upp mot vägen</t>
+          <t>stigen upp mot vägen</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -7341,10 +7341,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112128664</v>
+        <v>112128672</v>
       </c>
       <c r="B56" t="n">
-        <v>90710</v>
+        <v>90689</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7357,21 +7357,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5449</v>
+        <v>5966</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7434,7 +7434,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>stigen upp mot vägen</t>
+          <t>stgen upp mot vägen</t>
         </is>
       </c>
       <c r="AD56" t="b">

--- a/artfynd/A 23669-2020.xlsx
+++ b/artfynd/A 23669-2020.xlsx
@@ -7134,10 +7134,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>623279.5584157004</v>
+        <v>623280</v>
       </c>
       <c r="R54" t="n">
-        <v>6951830.900261804</v>
+        <v>6951831</v>
       </c>
       <c r="S54" t="n">
         <v>100</v>
@@ -7167,19 +7167,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA54" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
@@ -7212,10 +7202,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112128712</v>
+        <v>112128672</v>
       </c>
       <c r="B55" t="n">
-        <v>88914</v>
+        <v>90689</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7224,37 +7214,29 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2051</v>
+        <v>5966</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Rotfingersvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Ramaria boreimaxima</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Kytöv. &amp; M.Toivonen</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
@@ -7263,10 +7245,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>623279.5584157004</v>
+        <v>623280</v>
       </c>
       <c r="R55" t="n">
-        <v>6951830.900261804</v>
+        <v>6951831</v>
       </c>
       <c r="S55" t="n">
         <v>100</v>
@@ -7296,24 +7278,14 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA55" t="inlineStr">
         <is>
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>stigen upp mot vägen</t>
+          <t>stgen upp mot vägen</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7341,10 +7313,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112128672</v>
+        <v>112128712</v>
       </c>
       <c r="B56" t="n">
-        <v>90689</v>
+        <v>88914</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7353,29 +7325,37 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5966</v>
+        <v>2051</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Rotfingersvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Ramaria boreimaxima</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+          <t>Kytöv. &amp; M.Toivonen</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
@@ -7384,10 +7364,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>623279.5584157004</v>
+        <v>623280</v>
       </c>
       <c r="R56" t="n">
-        <v>6951830.900261804</v>
+        <v>6951831</v>
       </c>
       <c r="S56" t="n">
         <v>100</v>
@@ -7417,24 +7397,14 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA56" t="inlineStr">
         <is>
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>stgen upp mot vägen</t>
+          <t>stigen upp mot vägen</t>
         </is>
       </c>
       <c r="AD56" t="b">

--- a/artfynd/A 23669-2020.xlsx
+++ b/artfynd/A 23669-2020.xlsx
@@ -7091,10 +7091,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112128664</v>
+        <v>112128672</v>
       </c>
       <c r="B54" t="n">
-        <v>90710</v>
+        <v>90823</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -7107,21 +7107,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5449</v>
+        <v>5966</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -7174,7 +7174,7 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>stigen upp mot vägen</t>
+          <t>stgen upp mot vägen</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -7202,10 +7202,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112128672</v>
+        <v>112128712</v>
       </c>
       <c r="B55" t="n">
-        <v>90689</v>
+        <v>89048</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7214,29 +7214,37 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5966</v>
+        <v>2051</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Rotfingersvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Ramaria boreimaxima</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+          <t>Kytöv. &amp; M.Toivonen</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
@@ -7285,7 +7293,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>stgen upp mot vägen</t>
+          <t>stigen upp mot vägen</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7313,10 +7321,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112128712</v>
+        <v>112128664</v>
       </c>
       <c r="B56" t="n">
-        <v>88914</v>
+        <v>90844</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7325,37 +7333,29 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2051</v>
+        <v>5449</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Rotfingersvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Ramaria boreimaxima</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Kytöv. &amp; M.Toivonen</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">

--- a/artfynd/A 23669-2020.xlsx
+++ b/artfynd/A 23669-2020.xlsx
@@ -7091,10 +7091,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112128672</v>
+        <v>112128712</v>
       </c>
       <c r="B54" t="n">
-        <v>90823</v>
+        <v>89062</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -7103,29 +7103,37 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5966</v>
+        <v>2051</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Rotfingersvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Ramaria boreimaxima</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+          <t>Kytöv. &amp; M.Toivonen</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
@@ -7174,7 +7182,7 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>stgen upp mot vägen</t>
+          <t>stigen upp mot vägen</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -7202,10 +7210,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112128712</v>
+        <v>112128672</v>
       </c>
       <c r="B55" t="n">
-        <v>89048</v>
+        <v>90837</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7214,37 +7222,29 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2051</v>
+        <v>5966</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Rotfingersvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Ramaria boreimaxima</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Kytöv. &amp; M.Toivonen</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
@@ -7293,7 +7293,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>stigen upp mot vägen</t>
+          <t>stgen upp mot vägen</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7324,7 +7324,7 @@
         <v>112128664</v>
       </c>
       <c r="B56" t="n">
-        <v>90844</v>
+        <v>90858</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
